--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5158756666666667</v>
+        <v>0.581137</v>
       </c>
       <c r="H2">
-        <v>1.547627</v>
+        <v>1.743411</v>
       </c>
       <c r="I2">
-        <v>0.08115675834014567</v>
+        <v>0.08244918404718141</v>
       </c>
       <c r="J2">
-        <v>0.08115675834014567</v>
+        <v>0.08244918404718142</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N2">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q2">
-        <v>5.360419858984556</v>
+        <v>6.748682767902667</v>
       </c>
       <c r="R2">
-        <v>48.243778730861</v>
+        <v>60.738144911124</v>
       </c>
       <c r="S2">
-        <v>0.006777389924335783</v>
+        <v>0.00799183449141678</v>
       </c>
       <c r="T2">
-        <v>0.006777389924335783</v>
+        <v>0.007991834491416782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5158756666666667</v>
+        <v>0.581137</v>
       </c>
       <c r="H3">
-        <v>1.547627</v>
+        <v>1.743411</v>
       </c>
       <c r="I3">
-        <v>0.08115675834014567</v>
+        <v>0.08244918404718141</v>
       </c>
       <c r="J3">
-        <v>0.08115675834014567</v>
+        <v>0.08244918404718142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q3">
-        <v>18.42481893399622</v>
+        <v>20.75566787251534</v>
       </c>
       <c r="R3">
-        <v>165.823370405966</v>
+        <v>186.801010852638</v>
       </c>
       <c r="S3">
-        <v>0.02329522415892105</v>
+        <v>0.02457899831725378</v>
       </c>
       <c r="T3">
-        <v>0.02329522415892105</v>
+        <v>0.02457899831725378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5158756666666667</v>
+        <v>0.581137</v>
       </c>
       <c r="H4">
-        <v>1.547627</v>
+        <v>1.743411</v>
       </c>
       <c r="I4">
-        <v>0.08115675834014567</v>
+        <v>0.08244918404718141</v>
       </c>
       <c r="J4">
-        <v>0.08115675834014567</v>
+        <v>0.08244918404718142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N4">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q4">
-        <v>13.64512186060533</v>
+        <v>15.92277451125134</v>
       </c>
       <c r="R4">
-        <v>122.806096745448</v>
+        <v>143.304970601262</v>
       </c>
       <c r="S4">
-        <v>0.01725206492163079</v>
+        <v>0.01885585423325764</v>
       </c>
       <c r="T4">
-        <v>0.01725206492163079</v>
+        <v>0.01885585423325764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5158756666666667</v>
+        <v>0.581137</v>
       </c>
       <c r="H5">
-        <v>1.547627</v>
+        <v>1.743411</v>
       </c>
       <c r="I5">
-        <v>0.08115675834014567</v>
+        <v>0.08244918404718141</v>
       </c>
       <c r="J5">
-        <v>0.08115675834014567</v>
+        <v>0.08244918404718142</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N5">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O5">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P5">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q5">
-        <v>26.75870091054733</v>
+        <v>26.196862707995</v>
       </c>
       <c r="R5">
-        <v>240.828308194926</v>
+        <v>235.771764371955</v>
       </c>
       <c r="S5">
-        <v>0.03383207933525804</v>
+        <v>0.03102249700525321</v>
       </c>
       <c r="T5">
-        <v>0.03383207933525805</v>
+        <v>0.03102249700525322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1.828868333333333</v>
       </c>
       <c r="H6">
-        <v>5.486605</v>
+        <v>5.486604999999999</v>
       </c>
       <c r="I6">
-        <v>0.2877147246027854</v>
+        <v>0.2594718660368586</v>
       </c>
       <c r="J6">
-        <v>0.2877147246027854</v>
+        <v>0.2594718660368586</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N6">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q6">
-        <v>19.00361417861278</v>
+        <v>21.23845531420222</v>
       </c>
       <c r="R6">
-        <v>171.032527607515</v>
+        <v>191.14609782782</v>
       </c>
       <c r="S6">
-        <v>0.02402701778000146</v>
+        <v>0.02515071837895927</v>
       </c>
       <c r="T6">
-        <v>0.02402701778000146</v>
+        <v>0.02515071837895927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1.828868333333333</v>
       </c>
       <c r="H7">
-        <v>5.486605</v>
+        <v>5.486604999999999</v>
       </c>
       <c r="I7">
-        <v>0.2877147246027854</v>
+        <v>0.2594718660368586</v>
       </c>
       <c r="J7">
-        <v>0.2877147246027854</v>
+        <v>0.2594718660368586</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q7">
-        <v>65.31916520412112</v>
+        <v>65.31916520412111</v>
       </c>
       <c r="R7">
-        <v>587.87248683709</v>
+        <v>587.8724868370899</v>
       </c>
       <c r="S7">
-        <v>0.08258559287635651</v>
+        <v>0.07735138476379702</v>
       </c>
       <c r="T7">
-        <v>0.08258559287635651</v>
+        <v>0.07735138476379703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1.828868333333333</v>
       </c>
       <c r="H8">
-        <v>5.486605</v>
+        <v>5.486604999999999</v>
       </c>
       <c r="I8">
-        <v>0.2877147246027854</v>
+        <v>0.2594718660368586</v>
       </c>
       <c r="J8">
-        <v>0.2877147246027854</v>
+        <v>0.2594718660368586</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N8">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q8">
-        <v>48.37431359494666</v>
+        <v>50.10979869193444</v>
       </c>
       <c r="R8">
-        <v>435.36882235452</v>
+        <v>450.9881882274099</v>
       </c>
       <c r="S8">
-        <v>0.06116154968822855</v>
+        <v>0.05934035297211186</v>
       </c>
       <c r="T8">
-        <v>0.06116154968822857</v>
+        <v>0.05934035297211187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1.828868333333333</v>
       </c>
       <c r="H9">
-        <v>5.486605</v>
+        <v>5.486604999999999</v>
       </c>
       <c r="I9">
-        <v>0.2877147246027854</v>
+        <v>0.2594718660368586</v>
       </c>
       <c r="J9">
-        <v>0.2877147246027854</v>
+        <v>0.2594718660368586</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N9">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O9">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P9">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q9">
-        <v>94.86421612527666</v>
+        <v>82.44288806139166</v>
       </c>
       <c r="R9">
-        <v>853.7779451274899</v>
+        <v>741.9859925525249</v>
       </c>
       <c r="S9">
-        <v>0.1199405642581988</v>
+        <v>0.09762940992199043</v>
       </c>
       <c r="T9">
-        <v>0.1199405642581988</v>
+        <v>0.09762940992199046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.786132333333333</v>
+        <v>4.568238333333333</v>
       </c>
       <c r="H10">
-        <v>11.358397</v>
+        <v>13.704715</v>
       </c>
       <c r="I10">
-        <v>0.5956284559912921</v>
+        <v>0.6481217391361921</v>
       </c>
       <c r="J10">
-        <v>0.5956284559912921</v>
+        <v>0.6481217391361921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N10">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q10">
-        <v>39.34137673033011</v>
+        <v>53.05047057722889</v>
       </c>
       <c r="R10">
-        <v>354.072390572971</v>
+        <v>477.45423519506</v>
       </c>
       <c r="S10">
-        <v>0.04974085188770019</v>
+        <v>0.06282271594709275</v>
       </c>
       <c r="T10">
-        <v>0.04974085188770019</v>
+        <v>0.06282271594709275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.786132333333333</v>
+        <v>4.568238333333333</v>
       </c>
       <c r="H11">
-        <v>11.358397</v>
+        <v>13.704715</v>
       </c>
       <c r="I11">
-        <v>0.5956284559912921</v>
+        <v>0.6481217391361921</v>
       </c>
       <c r="J11">
-        <v>0.5956284559912921</v>
+        <v>0.6481217391361921</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q11">
-        <v>135.2240611629585</v>
+        <v>163.1574613372745</v>
       </c>
       <c r="R11">
-        <v>1217.016550466626</v>
+        <v>1468.41715203547</v>
       </c>
       <c r="S11">
-        <v>0.1709691057347903</v>
+        <v>0.1932121381151333</v>
       </c>
       <c r="T11">
-        <v>0.1709691057347903</v>
+        <v>0.1932121381151333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.786132333333333</v>
+        <v>4.568238333333333</v>
       </c>
       <c r="H12">
-        <v>11.358397</v>
+        <v>13.704715</v>
       </c>
       <c r="I12">
-        <v>0.5956284559912921</v>
+        <v>0.6481217391361921</v>
       </c>
       <c r="J12">
-        <v>0.5956284559912921</v>
+        <v>0.6481217391361921</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N12">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q12">
-        <v>100.1447449586587</v>
+        <v>125.1667487964478</v>
       </c>
       <c r="R12">
-        <v>901.3027046279281</v>
+        <v>1126.50073916803</v>
       </c>
       <c r="S12">
-        <v>0.1266169448127077</v>
+        <v>0.1482232866193568</v>
       </c>
       <c r="T12">
-        <v>0.1266169448127077</v>
+        <v>0.1482232866193568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.786132333333333</v>
+        <v>4.568238333333333</v>
       </c>
       <c r="H13">
-        <v>11.358397</v>
+        <v>13.704715</v>
       </c>
       <c r="I13">
-        <v>0.5956284559912921</v>
+        <v>0.6481217391361921</v>
       </c>
       <c r="J13">
-        <v>0.5956284559912921</v>
+        <v>0.6481217391361921</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N13">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O13">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P13">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q13">
-        <v>196.3883727450206</v>
+        <v>205.9299484213417</v>
       </c>
       <c r="R13">
-        <v>1767.495354705186</v>
+        <v>1853.369535792075</v>
       </c>
       <c r="S13">
-        <v>0.2483015535560939</v>
+        <v>0.2438635984546093</v>
       </c>
       <c r="T13">
-        <v>0.2483015535560939</v>
+        <v>0.2438635984546093</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2256573333333334</v>
+        <v>0.07018266666666667</v>
       </c>
       <c r="H14">
-        <v>0.6769720000000001</v>
+        <v>0.210548</v>
       </c>
       <c r="I14">
-        <v>0.0355000610657769</v>
+        <v>0.009957210779767909</v>
       </c>
       <c r="J14">
-        <v>0.0355000610657769</v>
+        <v>0.009957210779767911</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N14">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q14">
-        <v>2.344786019355111</v>
+        <v>0.8150239154257779</v>
       </c>
       <c r="R14">
-        <v>21.103074174196</v>
+        <v>7.335215238832</v>
       </c>
       <c r="S14">
-        <v>0.002964605303382174</v>
+        <v>0.0009651566776272607</v>
       </c>
       <c r="T14">
-        <v>0.002964605303382174</v>
+        <v>0.0009651566776272608</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2256573333333334</v>
+        <v>0.07018266666666667</v>
       </c>
       <c r="H15">
-        <v>0.6769720000000001</v>
+        <v>0.210548</v>
       </c>
       <c r="I15">
-        <v>0.0355000610657769</v>
+        <v>0.009957210779767909</v>
       </c>
       <c r="J15">
-        <v>0.0355000610657769</v>
+        <v>0.009957210779767911</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>107.146858</v>
       </c>
       <c r="O15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q15">
-        <v>8.059491417108447</v>
+        <v>2.506617406464889</v>
       </c>
       <c r="R15">
-        <v>72.53542275397602</v>
+        <v>22.559556658184</v>
       </c>
       <c r="S15">
-        <v>0.01018993238636513</v>
+        <v>0.002968352808202511</v>
       </c>
       <c r="T15">
-        <v>0.01018993238636513</v>
+        <v>0.002968352808202511</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2256573333333334</v>
+        <v>0.07018266666666667</v>
       </c>
       <c r="H16">
-        <v>0.6769720000000001</v>
+        <v>0.210548</v>
       </c>
       <c r="I16">
-        <v>0.0355000610657769</v>
+        <v>0.009957210779767909</v>
       </c>
       <c r="J16">
-        <v>0.0355000610657769</v>
+        <v>0.009957210779767911</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N16">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q16">
-        <v>5.968728534858668</v>
+        <v>1.922959260779556</v>
       </c>
       <c r="R16">
-        <v>53.71855681372801</v>
+        <v>17.306633347016</v>
       </c>
       <c r="S16">
-        <v>0.007546498538812156</v>
+        <v>0.002277180995820222</v>
       </c>
       <c r="T16">
-        <v>0.007546498538812158</v>
+        <v>0.002277180995820222</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2256573333333334</v>
+        <v>0.07018266666666667</v>
       </c>
       <c r="H17">
-        <v>0.6769720000000001</v>
+        <v>0.210548</v>
       </c>
       <c r="I17">
-        <v>0.0355000610657769</v>
+        <v>0.009957210779767909</v>
       </c>
       <c r="J17">
-        <v>0.0355000610657769</v>
+        <v>0.009957210779767911</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N17">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O17">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P17">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q17">
-        <v>11.70494652317067</v>
+        <v>3.163738813993334</v>
       </c>
       <c r="R17">
-        <v>105.344518708536</v>
+        <v>28.47364932594</v>
       </c>
       <c r="S17">
-        <v>0.01479902483721744</v>
+        <v>0.003746520298117915</v>
       </c>
       <c r="T17">
-        <v>0.01479902483721744</v>
+        <v>0.003746520298117916</v>
       </c>
     </row>
   </sheetData>
